--- a/data-raw/district_detail.xlsx
+++ b/data-raw/district_detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Robinson/Afenet-projects/afenet-uganda/malariaRA/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E450B35-1294-4A4E-A724-99D7D875F71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8250121-D4FC-484B-9F02-CC140E6902BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13980" xr2:uid="{34179EBF-EA7A-454E-A815-C1EFFB15E6B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>3m</t>
   </si>
@@ -126,7 +126,13 @@
     <t>5.3. Community awareness on the date and venues of malaria vaccination verified</t>
   </si>
   <si>
-    <t>4wk</t>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -483,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BDAACD-478D-784A-9407-44AC4BB3E96E}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,6 +529,9 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -531,6 +540,9 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -539,6 +551,9 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -547,6 +562,9 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -555,6 +573,9 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -563,6 +584,9 @@
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -571,6 +595,9 @@
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -579,6 +606,9 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -587,6 +617,9 @@
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -595,6 +628,9 @@
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -603,6 +639,9 @@
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -611,6 +650,9 @@
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -619,6 +661,9 @@
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -627,6 +672,9 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -635,61 +683,85 @@
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
